--- a/ORDEM DAS COLUNAS.xlsx
+++ b/ORDEM DAS COLUNAS.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jane\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Desktop\PROGRAM\PYTHON\7-CONVERSOR-GISSONLINE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26BCEC0-BB6E-4048-8B3F-2FBCDB11BDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5E9B8E-906F-4FA0-A481-5D53CD3549CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D900A842-212E-4C2D-893A-730D4CF5158D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D900A842-212E-4C2D-893A-730D4CF5158D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha4" sheetId="4" r:id="rId2"/>
     <sheet name="Planilha6" sheetId="6" r:id="rId3"/>
+    <sheet name="cliente_dados" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha4!$A$2:$H$75</definedName>
@@ -32,7 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="323">
   <si>
     <t>Tipo de Registro</t>
   </si>
@@ -836,6 +836,180 @@
   </si>
   <si>
     <t>TOMA_STA_ESTABELECIDO</t>
+  </si>
+  <si>
+    <t>Cliente 1</t>
+  </si>
+  <si>
+    <t>21970251000179</t>
+  </si>
+  <si>
+    <t>ACP EQUIP. IND. - 3</t>
+  </si>
+  <si>
+    <t>00411438000324</t>
+  </si>
+  <si>
+    <t>Diadema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACP EQUIP. IND. </t>
+  </si>
+  <si>
+    <t>00411438000162</t>
+  </si>
+  <si>
+    <t>BLG COMERCIAL</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>32054536000186</t>
+  </si>
+  <si>
+    <t>CITINI</t>
+  </si>
+  <si>
+    <t>51005647000147</t>
+  </si>
+  <si>
+    <t>CLINICA ARRUDA</t>
+  </si>
+  <si>
+    <t>22357234000123</t>
+  </si>
+  <si>
+    <t>DENER</t>
+  </si>
+  <si>
+    <t>46174229000143</t>
+  </si>
+  <si>
+    <t>APARECIDA ELIS.T. (DIALABOR)</t>
+  </si>
+  <si>
+    <t>07240217000118</t>
+  </si>
+  <si>
+    <t>DOTBUILD SISTEMAS</t>
+  </si>
+  <si>
+    <t>19686612000108</t>
+  </si>
+  <si>
+    <t>D GONÇALVES (EUGÊNIO)</t>
+  </si>
+  <si>
+    <t>15763269000105</t>
+  </si>
+  <si>
+    <t>EXPANSÃO BRASIL (SABOR)</t>
+  </si>
+  <si>
+    <t>02811960000167</t>
+  </si>
+  <si>
+    <t>FL Lopes Barueri (LOPES)</t>
+  </si>
+  <si>
+    <t>25424274000139</t>
+  </si>
+  <si>
+    <t>Barueri</t>
+  </si>
+  <si>
+    <t>G4 BRASIL</t>
+  </si>
+  <si>
+    <t>12631390000187</t>
+  </si>
+  <si>
+    <t>GIOVANNA VALENTIM</t>
+  </si>
+  <si>
+    <t>51084043000133</t>
+  </si>
+  <si>
+    <t>Indaiatuba</t>
+  </si>
+  <si>
+    <t>GLK</t>
+  </si>
+  <si>
+    <t>03840192000132</t>
+  </si>
+  <si>
+    <t>HSR</t>
+  </si>
+  <si>
+    <t>31435116000187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCO AURELIO (MA) </t>
+  </si>
+  <si>
+    <t>05877306000144</t>
+  </si>
+  <si>
+    <t>MEDPET</t>
+  </si>
+  <si>
+    <t>08937227000170</t>
+  </si>
+  <si>
+    <t>MERCADINHO WK</t>
+  </si>
+  <si>
+    <t>34830519000119</t>
+  </si>
+  <si>
+    <t>OSWAR</t>
+  </si>
+  <si>
+    <t>74421298000140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTAURANTE MINEIRISSIMO </t>
+  </si>
+  <si>
+    <t>19964861000118</t>
+  </si>
+  <si>
+    <t>Guarulhos</t>
+  </si>
+  <si>
+    <t>SAFETY FILIAL</t>
+  </si>
+  <si>
+    <t>24613608000230</t>
+  </si>
+  <si>
+    <t>Cajamar</t>
+  </si>
+  <si>
+    <t>SAFETY MATRIZ</t>
+  </si>
+  <si>
+    <t>24613608000150</t>
+  </si>
+  <si>
+    <t>SONHO DA SORTE</t>
+  </si>
+  <si>
+    <t>39350874000104</t>
+  </si>
+  <si>
+    <t>TUTTI BELLI</t>
+  </si>
+  <si>
+    <t>01190921000127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERARDI MESQUITA </t>
+  </si>
+  <si>
+    <t>30416776000158</t>
   </si>
 </sst>
 </file>
@@ -845,7 +1019,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0#############"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1310,88 +1484,86 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:BU7"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.09765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.09765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.3984375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="59.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="46.3984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="39.3984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="33.3984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="29.296875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="24" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="28" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="31.3984375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="37" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="16" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="37.59765625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="34.59765625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.296875" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="8" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5.296875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="2.69921875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.09765625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="4.09765625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.296875" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="30" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="26.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1612,7 +1784,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73">
       <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
@@ -1751,7 +1923,7 @@
       <c r="BT2" s="3"/>
       <c r="BU2" s="3"/>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -1824,7 +1996,7 @@
       <c r="BT3" s="3"/>
       <c r="BU3" s="3"/>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -1897,7 +2069,7 @@
       <c r="BT4" s="3"/>
       <c r="BU4" s="3"/>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -1970,7 +2142,7 @@
       <c r="BT5" s="3"/>
       <c r="BU5" s="3"/>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73">
       <c r="A6" s="5" t="s">
         <v>77</v>
       </c>
@@ -2032,7 +2204,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73">
       <c r="A7" s="5" t="s">
         <v>97</v>
       </c>
@@ -2122,26 +2294,26 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="20" t="s">
         <v>187</v>
       </c>
@@ -2155,7 +2327,7 @@
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="12" t="s">
         <v>183</v>
       </c>
@@ -2181,7 +2353,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="C3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="18" t="s">
@@ -2200,7 +2372,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" t="str">
         <f>_xlfn.CONCAT("'",C4,"': ",G4)</f>
         <v xml:space="preserve">'ENFS_NUM_NFS_INI': 'Nº NFS-e', </v>
@@ -2239,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" t="str">
         <f>_xlfn.CONCAT("'",C5,"': ",G5)</f>
         <v xml:space="preserve">'DIA': Data Hora NFE', </v>
@@ -2278,7 +2450,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="C6"/>
       <c r="D6" s="2"/>
       <c r="E6" s="18" t="s">
@@ -2294,7 +2466,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="E7" s="18" t="s">
         <v>257</v>
       </c>
@@ -2308,7 +2480,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="E8" s="18" t="s">
         <v>257</v>
       </c>
@@ -2322,7 +2494,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="E9" s="18" t="s">
         <v>257</v>
       </c>
@@ -2336,7 +2508,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="C10"/>
       <c r="D10" s="2"/>
       <c r="E10" s="18" t="s">
@@ -2355,7 +2527,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="E11" s="18" t="s">
         <v>257</v>
       </c>
@@ -2369,7 +2541,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="E12" s="14" t="s">
         <v>257</v>
       </c>
@@ -2386,7 +2558,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" t="str">
         <f>_xlfn.CONCAT("'",C13,"': ",G13)</f>
         <v xml:space="preserve">'TOMA_CPF_CGC': 'CPF/CNPJ do Prestador', </v>
@@ -2416,7 +2588,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="C14"/>
       <c r="E14" s="18" t="s">
         <v>257</v>
@@ -2431,7 +2603,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="C15"/>
       <c r="D15" s="2"/>
       <c r="E15" s="18" t="s">
@@ -2447,7 +2619,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="C16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="18" t="s">
@@ -2463,7 +2635,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="C17"/>
       <c r="D17" s="2"/>
       <c r="E17" s="18" t="s">
@@ -2479,7 +2651,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="C18"/>
       <c r="D18" s="2"/>
       <c r="E18" s="18" t="s">
@@ -2495,7 +2667,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="C19"/>
       <c r="D19" s="2"/>
       <c r="E19" s="18" t="s">
@@ -2511,7 +2683,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="C20"/>
       <c r="E20" s="18" t="s">
         <v>257</v>
@@ -2526,7 +2698,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="C21"/>
       <c r="D21" s="2"/>
       <c r="E21" s="18" t="s">
@@ -2542,7 +2714,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="C22"/>
       <c r="D22" s="2"/>
       <c r="E22" s="18" t="s">
@@ -2558,7 +2730,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="C23"/>
       <c r="D23" s="7"/>
       <c r="E23" s="18" t="s">
@@ -2574,7 +2746,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="C24"/>
       <c r="E24" s="18" t="s">
         <v>257</v>
@@ -2592,7 +2764,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="C25"/>
       <c r="E25" s="14" t="s">
         <v>257</v>
@@ -2610,7 +2782,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="C26"/>
       <c r="D26" s="2"/>
       <c r="E26" s="18" t="s">
@@ -2626,7 +2798,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="C27"/>
       <c r="D27" s="2"/>
       <c r="E27" s="18" t="s">
@@ -2642,7 +2814,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="C28"/>
       <c r="D28" s="2"/>
       <c r="E28" s="18" t="s">
@@ -2658,7 +2830,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" t="str">
         <f>_xlfn.CONCAT("'",C29,"': ",G29)</f>
         <v xml:space="preserve">'VALOR_FATURADO': 'Valor dos Serviços', </v>
@@ -2688,7 +2860,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="C30"/>
       <c r="D30" s="2"/>
       <c r="E30" s="18" t="s">
@@ -2707,7 +2879,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" t="str">
         <f t="shared" ref="A31:A35" si="0">_xlfn.CONCAT("'",C31,"': ",G31)</f>
         <v xml:space="preserve">'ATIT_COD_ATIVIDADE': 'Código do Serviço Prestado na Nota Fiscal', </v>
@@ -2737,7 +2909,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">'VALOR_ALIQUOTA': 'Alíquota', </v>
@@ -2767,7 +2939,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>'VALOR_IMPOSTO': ISS devido',</v>
@@ -2797,7 +2969,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="C34"/>
       <c r="E34" s="18" t="s">
         <v>257</v>
@@ -2815,7 +2987,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">'TOMA_STA_ESTABELECIDO': ISS Retido', </v>
@@ -2845,7 +3017,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="C36"/>
       <c r="E36" s="14" t="s">
         <v>257</v>
@@ -2863,7 +3035,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="C37"/>
       <c r="E37" s="14" t="s">
         <v>257</v>
@@ -2881,7 +3053,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="C38"/>
       <c r="E38" s="18" t="s">
         <v>257</v>
@@ -2896,7 +3068,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="C39"/>
       <c r="E39" s="18" t="s">
         <v>257</v>
@@ -2911,7 +3083,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="C40"/>
       <c r="E40" s="18" t="s">
         <v>257</v>
@@ -2926,7 +3098,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="C41"/>
       <c r="E41" s="18" t="s">
         <v>257</v>
@@ -2941,7 +3113,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="C42"/>
       <c r="E42" s="18" t="s">
         <v>257</v>
@@ -2956,7 +3128,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="C43"/>
       <c r="E43" s="18" t="s">
         <v>257</v>
@@ -2971,7 +3143,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="C44"/>
       <c r="E44" s="18" t="s">
         <v>257</v>
@@ -2986,7 +3158,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="C45"/>
       <c r="E45" s="18" t="s">
         <v>257</v>
@@ -3001,7 +3173,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="C46"/>
       <c r="E46" s="14" t="s">
         <v>257</v>
@@ -3016,7 +3188,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="C47"/>
       <c r="E47" s="14" t="s">
         <v>257</v>
@@ -3031,7 +3203,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="C48"/>
       <c r="E48" s="18" t="s">
         <v>257</v>
@@ -3046,7 +3218,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:11">
       <c r="C49"/>
       <c r="E49" s="18" t="s">
         <v>257</v>
@@ -3061,7 +3233,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:11">
       <c r="C50"/>
       <c r="E50" s="18" t="s">
         <v>257</v>
@@ -3076,7 +3248,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:11">
       <c r="C51"/>
       <c r="E51" s="18" t="s">
         <v>257</v>
@@ -3091,7 +3263,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:11">
       <c r="C52"/>
       <c r="E52" s="18" t="s">
         <v>257</v>
@@ -3109,7 +3281,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:11">
       <c r="C53"/>
       <c r="E53" s="14" t="s">
         <v>257</v>
@@ -3127,7 +3299,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:11">
       <c r="C54"/>
       <c r="E54" s="18" t="s">
         <v>257</v>
@@ -3142,7 +3314,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:11">
       <c r="C55"/>
       <c r="E55" s="18" t="s">
         <v>257</v>
@@ -3157,7 +3329,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:11">
       <c r="C56"/>
       <c r="E56" s="18" t="s">
         <v>257</v>
@@ -3172,7 +3344,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:11">
       <c r="C57"/>
       <c r="E57" s="18" t="s">
         <v>257</v>
@@ -3187,7 +3359,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:11">
       <c r="C58"/>
       <c r="E58" s="18" t="s">
         <v>257</v>
@@ -3205,7 +3377,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:11">
       <c r="C59"/>
       <c r="E59" s="18" t="s">
         <v>257</v>
@@ -3223,7 +3395,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:11">
       <c r="C60"/>
       <c r="E60" s="18" t="s">
         <v>257</v>
@@ -3241,7 +3413,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:11">
       <c r="C61"/>
       <c r="E61" s="18" t="s">
         <v>257</v>
@@ -3259,7 +3431,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:11">
       <c r="C62"/>
       <c r="E62" s="18" t="s">
         <v>257</v>
@@ -3277,7 +3449,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:11">
       <c r="C63"/>
       <c r="E63" s="18" t="s">
         <v>257</v>
@@ -3295,7 +3467,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:11">
       <c r="C64"/>
       <c r="D64" s="2"/>
       <c r="E64" s="18" t="s">
@@ -3311,7 +3483,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:11">
       <c r="E65" s="18" t="s">
         <v>257</v>
       </c>
@@ -3325,7 +3497,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:11">
       <c r="E66" s="18" t="s">
         <v>257</v>
       </c>
@@ -3342,7 +3514,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:11">
       <c r="E67" s="18" t="s">
         <v>257</v>
       </c>
@@ -3359,7 +3531,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:11">
       <c r="E68" s="18" t="s">
         <v>257</v>
       </c>
@@ -3376,7 +3548,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:11">
       <c r="E69" s="18" t="s">
         <v>257</v>
       </c>
@@ -3390,7 +3562,7 @@
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:11">
       <c r="E70" s="18" t="s">
         <v>257</v>
       </c>
@@ -3407,7 +3579,7 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:11">
       <c r="E71" s="18" t="s">
         <v>257</v>
       </c>
@@ -3424,7 +3596,7 @@
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:11">
       <c r="E72" s="18" t="s">
         <v>257</v>
       </c>
@@ -3438,7 +3610,7 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:11">
       <c r="E73" s="18" t="s">
         <v>257</v>
       </c>
@@ -3452,7 +3624,7 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:11">
       <c r="E74" s="18" t="s">
         <v>257</v>
       </c>
@@ -3466,7 +3638,7 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:11">
       <c r="E75" s="18" t="s">
         <v>257</v>
       </c>
@@ -3500,14 +3672,14 @@
       <selection activeCell="I1" sqref="I1:AW1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:49">
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3646,7 +3818,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:49">
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -3658,7 +3830,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:49">
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -3670,7 +3842,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:49">
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3682,7 +3854,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:49">
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
@@ -3694,7 +3866,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:49">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -3706,7 +3878,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:49">
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -3718,7 +3890,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:49">
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
@@ -3730,7 +3902,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:49">
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -3742,7 +3914,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:49">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -3754,7 +3926,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:49">
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
@@ -3766,7 +3938,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:49">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -3778,7 +3950,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:49">
       <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
@@ -3790,7 +3962,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:49">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -3802,7 +3974,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:49">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -3814,7 +3986,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:49">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -3826,7 +3998,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
@@ -3838,7 +4010,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
@@ -3850,7 +4022,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -3862,7 +4034,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -3874,7 +4046,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" s="8" t="s">
         <v>20</v>
       </c>
@@ -3886,7 +4058,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -3898,7 +4070,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
@@ -3910,7 +4082,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
@@ -3922,7 +4094,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
@@ -3934,7 +4106,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
@@ -3946,7 +4118,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
@@ -3958,7 +4130,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="B28" s="8" t="s">
         <v>27</v>
       </c>
@@ -3970,7 +4142,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="B29" s="8" t="s">
         <v>28</v>
       </c>
@@ -3982,7 +4154,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
       <c r="B30" s="8" t="s">
         <v>29</v>
       </c>
@@ -3994,7 +4166,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="B31" s="8" t="s">
         <v>30</v>
       </c>
@@ -4006,7 +4178,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="B32" s="8" t="s">
         <v>31</v>
       </c>
@@ -4018,7 +4190,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8">
       <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
@@ -4030,7 +4202,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8">
       <c r="B34" s="8" t="s">
         <v>33</v>
       </c>
@@ -4042,7 +4214,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8">
       <c r="B35" s="8" t="s">
         <v>34</v>
       </c>
@@ -4054,7 +4226,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8">
       <c r="B36" s="8" t="s">
         <v>35</v>
       </c>
@@ -4066,7 +4238,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8">
       <c r="B37" s="8" t="s">
         <v>36</v>
       </c>
@@ -4078,7 +4250,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8">
       <c r="B38" s="8" t="s">
         <v>37</v>
       </c>
@@ -4090,7 +4262,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8">
       <c r="B39" s="8" t="s">
         <v>38</v>
       </c>
@@ -4102,7 +4274,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8">
       <c r="B40" s="8" t="s">
         <v>39</v>
       </c>
@@ -4114,7 +4286,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8">
       <c r="B41" s="8" t="s">
         <v>40</v>
       </c>
@@ -4126,7 +4298,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8">
       <c r="B42" s="8" t="s">
         <v>41</v>
       </c>
@@ -4135,7 +4307,7 @@
         <v xml:space="preserve">'Complemento do Endereço do Tomador', </v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8">
       <c r="B43" s="8" t="s">
         <v>42</v>
       </c>
@@ -4144,7 +4316,7 @@
         <v xml:space="preserve">'Bairro do Tomador', </v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8">
       <c r="B44" s="8" t="s">
         <v>43</v>
       </c>
@@ -4153,7 +4325,7 @@
         <v xml:space="preserve">'Cidade do Tomador', </v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8">
       <c r="B45" s="8" t="s">
         <v>44</v>
       </c>
@@ -4162,7 +4334,7 @@
         <v xml:space="preserve">'UF do Tomador', </v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8">
       <c r="B46" s="8" t="s">
         <v>45</v>
       </c>
@@ -4171,7 +4343,7 @@
         <v xml:space="preserve">'CEP do Tomador', </v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8">
       <c r="B47" s="8" t="s">
         <v>46</v>
       </c>
@@ -4180,7 +4352,7 @@
         <v xml:space="preserve">'Email do Tomador', </v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8">
       <c r="B48" s="8" t="s">
         <v>47</v>
       </c>
@@ -4189,7 +4361,7 @@
         <v xml:space="preserve">'Nº NFS-e Substituta', </v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" s="8" t="s">
         <v>48</v>
       </c>
@@ -4198,7 +4370,7 @@
         <v xml:space="preserve">'ISS recolhido', </v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" s="8" t="s">
         <v>49</v>
       </c>
@@ -4207,7 +4379,7 @@
         <v xml:space="preserve">'ISS a recolher', </v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" s="8" t="s">
         <v>50</v>
       </c>
@@ -4216,7 +4388,7 @@
         <v xml:space="preserve">'Indicador de CPF/CNPJ do Intermediário', </v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3">
       <c r="B52" s="8" t="s">
         <v>51</v>
       </c>
@@ -4225,7 +4397,7 @@
         <v xml:space="preserve">'CPF/CNPJ do Intermediário', </v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3">
       <c r="B53" s="8" t="s">
         <v>52</v>
       </c>
@@ -4234,7 +4406,7 @@
         <v xml:space="preserve">'Inscrição Municipal do Intermediário', </v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3">
       <c r="B54" s="8" t="s">
         <v>53</v>
       </c>
@@ -4243,7 +4415,7 @@
         <v xml:space="preserve">'Razão Social do Intermediário', </v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3">
       <c r="B55" s="8" t="s">
         <v>54</v>
       </c>
@@ -4252,7 +4424,7 @@
         <v xml:space="preserve">'Repasse do Plano de Saúde', </v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3">
       <c r="B56" s="8" t="s">
         <v>55</v>
       </c>
@@ -4261,7 +4433,7 @@
         <v xml:space="preserve">'PIS/PASEP', </v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3">
       <c r="B57" s="8" t="s">
         <v>56</v>
       </c>
@@ -4270,7 +4442,7 @@
         <v xml:space="preserve">'COFINS', </v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3">
       <c r="B58" s="8" t="s">
         <v>57</v>
       </c>
@@ -4279,7 +4451,7 @@
         <v xml:space="preserve">'INSS', </v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3">
       <c r="B59" s="8" t="s">
         <v>58</v>
       </c>
@@ -4288,7 +4460,7 @@
         <v xml:space="preserve">'IR', </v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3">
       <c r="B60" s="8" t="s">
         <v>59</v>
       </c>
@@ -4297,7 +4469,7 @@
         <v xml:space="preserve">'CSLL', </v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3">
       <c r="B61" s="8" t="s">
         <v>60</v>
       </c>
@@ -4306,7 +4478,7 @@
         <v xml:space="preserve">'Carga tributária: Valor', </v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3">
       <c r="B62" s="8" t="s">
         <v>61</v>
       </c>
@@ -4315,7 +4487,7 @@
         <v xml:space="preserve">'Carga tributária: Porcentagem', </v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3">
       <c r="B63" s="8" t="s">
         <v>62</v>
       </c>
@@ -4324,7 +4496,7 @@
         <v xml:space="preserve">'Carga tributária: Fonte', </v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3">
       <c r="B64" s="8" t="s">
         <v>63</v>
       </c>
@@ -4333,7 +4505,7 @@
         <v xml:space="preserve">'CEI', </v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3">
       <c r="B65" s="8" t="s">
         <v>64</v>
       </c>
@@ -4342,7 +4514,7 @@
         <v xml:space="preserve">'Matrícula da Obra', </v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3">
       <c r="B66" s="8" t="s">
         <v>65</v>
       </c>
@@ -4351,7 +4523,7 @@
         <v xml:space="preserve">'Município Prestação - cód. IBGE', </v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3">
       <c r="B67" t="s">
         <v>66</v>
       </c>
@@ -4360,7 +4532,7 @@
         <v xml:space="preserve">'Situação do Aceite', </v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3">
       <c r="B68" t="s">
         <v>67</v>
       </c>
@@ -4369,7 +4541,7 @@
         <v xml:space="preserve">'Encapsulamento', </v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3">
       <c r="B69" t="s">
         <v>68</v>
       </c>
@@ -4378,7 +4550,7 @@
         <v xml:space="preserve">'Valor Total Recebido', </v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3">
       <c r="B70" t="s">
         <v>69</v>
       </c>
@@ -4387,7 +4559,7 @@
         <v xml:space="preserve">'Tipo de Consolidação', </v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3">
       <c r="B71" t="s">
         <v>70</v>
       </c>
@@ -4396,7 +4568,7 @@
         <v xml:space="preserve">'Nº NFS-e Consolidada', </v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3">
       <c r="B72" t="s">
         <v>71</v>
       </c>
@@ -4405,7 +4577,7 @@
         <v xml:space="preserve">'Campo Reservado', </v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3">
       <c r="B73" t="s">
         <v>72</v>
       </c>
@@ -4418,4 +4590,430 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909487FF-670F-448A-8D95-32B64FDD8309}">
+  <dimension ref="C2:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6">
+      <c r="C2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="str">
+        <f>""""&amp;C2&amp;""": {""cnpj"": """&amp;D2&amp;""", ""cidade"": """&amp;E2&amp;"""},"</f>
+        <v>"Cliente 1": {"cnpj": "21970251000179", "cidade": "São Bernardo do Campo"},</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F28" si="0">""""&amp;C3&amp;""": {""cnpj"": """&amp;D3&amp;""", ""cidade"": """&amp;E3&amp;"""},"</f>
+        <v>"ACP EQUIP. IND. - 3": {"cnpj": "00411438000324", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>"ACP EQUIP. IND. ": {"cnpj": "00411438000162", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>"BLG COMERCIAL": {"cnpj": "21970251000179", "cidade": "São Bernardo do Campo"},</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>"BRUNO": {"cnpj": "32054536000186", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>"CITINI": {"cnpj": "51005647000147", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>"CLINICA ARRUDA": {"cnpj": "22357234000123", "cidade": "São Bernardo do Campo"},</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>"DENER": {"cnpj": "46174229000143", "cidade": "São Bernardo do Campo"},</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>"APARECIDA ELIS.T. (DIALABOR)": {"cnpj": "07240217000118", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>"DOTBUILD SISTEMAS": {"cnpj": "19686612000108", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>"D GONÇALVES (EUGÊNIO)": {"cnpj": "15763269000105", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>"EXPANSÃO BRASIL (SABOR)": {"cnpj": "02811960000167", "cidade": "São Bernardo do Campo"},</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>"FL Lopes Barueri (LOPES)": {"cnpj": "25424274000139", "cidade": "Barueri"},</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" t="s">
+        <v>292</v>
+      </c>
+      <c r="D15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>"G4 BRASIL": {"cnpj": "12631390000187", "cidade": "São Bernardo do Campo"},</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>"GIOVANNA VALENTIM": {"cnpj": "51084043000133", "cidade": "Indaiatuba"},</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>"GLK": {"cnpj": "03840192000132", "cidade": "São Bernardo do Campo"},</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" t="s">
+        <v>300</v>
+      </c>
+      <c r="E18" t="s">
+        <v>269</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>"HSR": {"cnpj": "31435116000187", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>"MARCO AURELIO (MA) ": {"cnpj": "05877306000144", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" t="s">
+        <v>304</v>
+      </c>
+      <c r="E20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>"MEDPET": {"cnpj": "08937227000170", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" t="s">
+        <v>306</v>
+      </c>
+      <c r="E21" t="s">
+        <v>269</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>"MERCADINHO WK": {"cnpj": "34830519000119", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22" t="s">
+        <v>308</v>
+      </c>
+      <c r="E22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>"OSWAR": {"cnpj": "74421298000140", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" t="s">
+        <v>309</v>
+      </c>
+      <c r="D23" t="s">
+        <v>310</v>
+      </c>
+      <c r="E23" t="s">
+        <v>311</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>"RESTAURANTE MINEIRISSIMO ": {"cnpj": "19964861000118", "cidade": "Guarulhos"},</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" t="s">
+        <v>312</v>
+      </c>
+      <c r="D24" t="s">
+        <v>313</v>
+      </c>
+      <c r="E24" t="s">
+        <v>314</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>"SAFETY FILIAL": {"cnpj": "24613608000230", "cidade": "Cajamar"},</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D25" t="s">
+        <v>316</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>"SAFETY MATRIZ": {"cnpj": "24613608000150", "cidade": "São Bernardo do Campo"},</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D26" t="s">
+        <v>318</v>
+      </c>
+      <c r="E26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>"SONHO DA SORTE": {"cnpj": "39350874000104", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D27" t="s">
+        <v>320</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>"TUTTI BELLI": {"cnpj": "01190921000127", "cidade": "São Bernardo do Campo"},</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D28" t="s">
+        <v>322</v>
+      </c>
+      <c r="E28" t="s">
+        <v>269</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>"VERARDI MESQUITA ": {"cnpj": "30416776000158", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/ORDEM DAS COLUNAS.xlsx
+++ b/ORDEM DAS COLUNAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Desktop\PROGRAM\PYTHON\7-CONVERSOR-GISSONLINE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5E9B8E-906F-4FA0-A481-5D53CD3549CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A079A72-2F25-4592-B27A-036F8DD39666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D900A842-212E-4C2D-893A-730D4CF5158D}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="cliente_dados" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">cliente_dados!$A$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha4!$A$2:$H$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="401">
   <si>
     <t>Tipo de Registro</t>
   </si>
@@ -838,9 +839,6 @@
     <t>TOMA_STA_ESTABELECIDO</t>
   </si>
   <si>
-    <t>Cliente 1</t>
-  </si>
-  <si>
     <t>21970251000179</t>
   </si>
   <si>
@@ -853,9 +851,6 @@
     <t>Diadema</t>
   </si>
   <si>
-    <t xml:space="preserve">ACP EQUIP. IND. </t>
-  </si>
-  <si>
     <t>00411438000162</t>
   </si>
   <si>
@@ -910,9 +905,6 @@
     <t>02811960000167</t>
   </si>
   <si>
-    <t>FL Lopes Barueri (LOPES)</t>
-  </si>
-  <si>
     <t>25424274000139</t>
   </si>
   <si>
@@ -952,15 +944,9 @@
     <t>05877306000144</t>
   </si>
   <si>
-    <t>MEDPET</t>
-  </si>
-  <si>
     <t>08937227000170</t>
   </si>
   <si>
-    <t>MERCADINHO WK</t>
-  </si>
-  <si>
     <t>34830519000119</t>
   </si>
   <si>
@@ -1006,10 +992,259 @@
     <t>01190921000127</t>
   </si>
   <si>
-    <t xml:space="preserve">VERARDI MESQUITA </t>
-  </si>
-  <si>
     <t>30416776000158</t>
+  </si>
+  <si>
+    <t>45471869000152</t>
+  </si>
+  <si>
+    <t>59104513000195</t>
+  </si>
+  <si>
+    <t>59117879000107</t>
+  </si>
+  <si>
+    <t>58866732000149</t>
+  </si>
+  <si>
+    <t>62508239000124</t>
+  </si>
+  <si>
+    <t>01711130000103</t>
+  </si>
+  <si>
+    <t>12535091000149</t>
+  </si>
+  <si>
+    <t>50141886000161</t>
+  </si>
+  <si>
+    <t>04676910000140</t>
+  </si>
+  <si>
+    <t>06332839000103</t>
+  </si>
+  <si>
+    <t>07040764000150</t>
+  </si>
+  <si>
+    <t>08930856000178</t>
+  </si>
+  <si>
+    <t>09264757000167</t>
+  </si>
+  <si>
+    <t>09519432000188</t>
+  </si>
+  <si>
+    <t>12543402000111</t>
+  </si>
+  <si>
+    <t>10610292000138</t>
+  </si>
+  <si>
+    <t>16888626000116</t>
+  </si>
+  <si>
+    <t>17390750000110</t>
+  </si>
+  <si>
+    <t>10917506000113</t>
+  </si>
+  <si>
+    <t>10918387000113</t>
+  </si>
+  <si>
+    <t>10935808000114</t>
+  </si>
+  <si>
+    <t>10857251000140</t>
+  </si>
+  <si>
+    <t>22733153000180</t>
+  </si>
+  <si>
+    <t>22085439000105</t>
+  </si>
+  <si>
+    <t>25097975000100</t>
+  </si>
+  <si>
+    <t>57015984000444</t>
+  </si>
+  <si>
+    <t>08455522000190</t>
+  </si>
+  <si>
+    <t>28039144000170</t>
+  </si>
+  <si>
+    <t>26312957000167</t>
+  </si>
+  <si>
+    <t>30466091000116</t>
+  </si>
+  <si>
+    <t>33715500000169</t>
+  </si>
+  <si>
+    <t>40649288000144</t>
+  </si>
+  <si>
+    <t>41988005000151</t>
+  </si>
+  <si>
+    <t>43084512000196</t>
+  </si>
+  <si>
+    <t>44569964000120</t>
+  </si>
+  <si>
+    <t>33489461000129</t>
+  </si>
+  <si>
+    <t>46728652000148</t>
+  </si>
+  <si>
+    <t>47335508000104</t>
+  </si>
+  <si>
+    <t>47587824000173</t>
+  </si>
+  <si>
+    <t>29617403000166</t>
+  </si>
+  <si>
+    <t>53902774000174</t>
+  </si>
+  <si>
+    <t>A C P EQUIPAMENTOS INDUSTRIAIS...</t>
+  </si>
+  <si>
+    <t>AD VALOR ADMINISTRAÇÃO LTDA</t>
+  </si>
+  <si>
+    <t>AGUAPLUS POCOS ARTESIANOS LTDA</t>
+  </si>
+  <si>
+    <t>AGUAPLUS SANEAMENTO E PROCESSO...</t>
+  </si>
+  <si>
+    <t>ANTONIA DE OLIVEIRA SOUSA SALG...</t>
+  </si>
+  <si>
+    <t>AUTOMETAL LTDA</t>
+  </si>
+  <si>
+    <t>CAIO M.M. AZEREDO SOCIEDADE IN...</t>
+  </si>
+  <si>
+    <t>CAIXA ESCOLAR DA ESCOLA MUNICI...</t>
+  </si>
+  <si>
+    <t>CYPRIANO VIEIRA DESIDERATO</t>
+  </si>
+  <si>
+    <t>DEPLASTI INDUSTRIA E COMERCIO ...</t>
+  </si>
+  <si>
+    <t>DESIDERAT0 SORVETES FINOS LTDA</t>
+  </si>
+  <si>
+    <t>ELIAS LIBERATO ARTEFATOS</t>
+  </si>
+  <si>
+    <t>FENIX ASSESSORIA CONTABIL S/S ...</t>
+  </si>
+  <si>
+    <t>FL LOPES BARUERI (LOPES)</t>
+  </si>
+  <si>
+    <t>GARAGEM 120 MECANICA PUBLICID...</t>
+  </si>
+  <si>
+    <t>GRAFIVE CERT CONSULTORIA LTDA</t>
+  </si>
+  <si>
+    <t>HMF SISTEMAS DE ENERGIA COMERC...</t>
+  </si>
+  <si>
+    <t>JOSE MARIO GALLI DESIDERATO</t>
+  </si>
+  <si>
+    <t>KHROMO TECHNOLOGY DO BRASIL SO...</t>
+  </si>
+  <si>
+    <t>LMG ADMINISTRACAO DE BENS IMOV...</t>
+  </si>
+  <si>
+    <t>M T WATAYA NAKAO ME</t>
+  </si>
+  <si>
+    <t>MAXXIKIT AUTO PARTS INDUSTRIA ...</t>
+  </si>
+  <si>
+    <t>MED PET SHOP LTDA ME</t>
+  </si>
+  <si>
+    <t>MENDES &amp; AZEREDO CONSULTORIA P...</t>
+  </si>
+  <si>
+    <t>MERCADINHO E PADARIA WK LTDA</t>
+  </si>
+  <si>
+    <t>MIGUEL SANTOS PARTICIPACOES LT...</t>
+  </si>
+  <si>
+    <t>MOISÉS GONÇALVES DA SILVA LAVA...</t>
+  </si>
+  <si>
+    <t>NEW TECH SISTEMAS DE ENERGIA L...</t>
+  </si>
+  <si>
+    <t>PTM PLANEJAMENTO FINANCEIRO LT...</t>
+  </si>
+  <si>
+    <t>R&amp;Y SISTEMAS MANUTENCOES ELETR...</t>
+  </si>
+  <si>
+    <t>ROTH, OCHIAI E ANANIAS SOCIEDA...</t>
+  </si>
+  <si>
+    <t>SAMISA S C LTDA</t>
+  </si>
+  <si>
+    <t>SÃO LUCAS ESCRITORIO DE GESTÃO...</t>
+  </si>
+  <si>
+    <t>SATLER FASHION COMPANY LTDA</t>
+  </si>
+  <si>
+    <t>TOTB PARTICIPACOES LTDA</t>
+  </si>
+  <si>
+    <t>TUBOLAR MATERIAIS PARA CONSTRU...</t>
+  </si>
+  <si>
+    <t>TWR TECNOLOGIA E COMERCIO DE M...</t>
+  </si>
+  <si>
+    <t>VCG 01 EMPREENDIMENTO IMOBILIA...</t>
+  </si>
+  <si>
+    <t>VERARDI &amp; MESQUITA SOCIEDADE D...</t>
+  </si>
+  <si>
+    <t>VETERINARIA NOSSO LAR LTDA</t>
+  </si>
+  <si>
+    <t>VG ADMINISTRACAO DE IMOVEIS E ...</t>
+  </si>
+  <si>
+    <t>VISION CONSTANTLY GROWING LTDA</t>
+  </si>
+  <si>
+    <t>YABIKU MATERIAIS DE CONSTRUCAO...</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1254,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0#############"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1486,84 +1721,84 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.09765625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="59.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="46.3984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="39.3984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="33.3984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.3984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="29.296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="24" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="28" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="31.3984375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="37" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23.09765625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="16" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="37.59765625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="34.59765625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="25.8984375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="8" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="5.296875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="2.69921875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="28.296875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="4.09765625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="30" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1784,7 +2019,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:73">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
@@ -1923,7 +2158,7 @@
       <c r="BT2" s="3"/>
       <c r="BU2" s="3"/>
     </row>
-    <row r="3" spans="1:73">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -1996,7 +2231,7 @@
       <c r="BT3" s="3"/>
       <c r="BU3" s="3"/>
     </row>
-    <row r="4" spans="1:73">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -2069,7 +2304,7 @@
       <c r="BT4" s="3"/>
       <c r="BU4" s="3"/>
     </row>
-    <row r="5" spans="1:73">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -2142,7 +2377,7 @@
       <c r="BT5" s="3"/>
       <c r="BU5" s="3"/>
     </row>
-    <row r="6" spans="1:73">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>77</v>
       </c>
@@ -2204,7 +2439,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:73">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>97</v>
       </c>
@@ -2298,22 +2533,22 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.59765625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>187</v>
       </c>
@@ -2327,7 +2562,7 @@
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>183</v>
       </c>
@@ -2353,7 +2588,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="18" t="s">
@@ -2372,7 +2607,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>_xlfn.CONCAT("'",C4,"': ",G4)</f>
         <v xml:space="preserve">'ENFS_NUM_NFS_INI': 'Nº NFS-e', </v>
@@ -2411,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>_xlfn.CONCAT("'",C5,"': ",G5)</f>
         <v xml:space="preserve">'DIA': Data Hora NFE', </v>
@@ -2450,7 +2685,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C6"/>
       <c r="D6" s="2"/>
       <c r="E6" s="18" t="s">
@@ -2466,7 +2701,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E7" s="18" t="s">
         <v>257</v>
       </c>
@@ -2480,7 +2715,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E8" s="18" t="s">
         <v>257</v>
       </c>
@@ -2494,7 +2729,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E9" s="18" t="s">
         <v>257</v>
       </c>
@@ -2508,7 +2743,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10"/>
       <c r="D10" s="2"/>
       <c r="E10" s="18" t="s">
@@ -2527,7 +2762,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E11" s="18" t="s">
         <v>257</v>
       </c>
@@ -2541,7 +2776,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E12" s="14" t="s">
         <v>257</v>
       </c>
@@ -2558,7 +2793,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>_xlfn.CONCAT("'",C13,"': ",G13)</f>
         <v xml:space="preserve">'TOMA_CPF_CGC': 'CPF/CNPJ do Prestador', </v>
@@ -2588,7 +2823,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14"/>
       <c r="E14" s="18" t="s">
         <v>257</v>
@@ -2603,7 +2838,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C15"/>
       <c r="D15" s="2"/>
       <c r="E15" s="18" t="s">
@@ -2619,7 +2854,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="18" t="s">
@@ -2635,7 +2870,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C17"/>
       <c r="D17" s="2"/>
       <c r="E17" s="18" t="s">
@@ -2651,7 +2886,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C18"/>
       <c r="D18" s="2"/>
       <c r="E18" s="18" t="s">
@@ -2667,7 +2902,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C19"/>
       <c r="D19" s="2"/>
       <c r="E19" s="18" t="s">
@@ -2683,7 +2918,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C20"/>
       <c r="E20" s="18" t="s">
         <v>257</v>
@@ -2698,7 +2933,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C21"/>
       <c r="D21" s="2"/>
       <c r="E21" s="18" t="s">
@@ -2714,7 +2949,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C22"/>
       <c r="D22" s="2"/>
       <c r="E22" s="18" t="s">
@@ -2730,7 +2965,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C23"/>
       <c r="D23" s="7"/>
       <c r="E23" s="18" t="s">
@@ -2746,7 +2981,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C24"/>
       <c r="E24" s="18" t="s">
         <v>257</v>
@@ -2764,7 +2999,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C25"/>
       <c r="E25" s="14" t="s">
         <v>257</v>
@@ -2782,7 +3017,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C26"/>
       <c r="D26" s="2"/>
       <c r="E26" s="18" t="s">
@@ -2798,7 +3033,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C27"/>
       <c r="D27" s="2"/>
       <c r="E27" s="18" t="s">
@@ -2814,7 +3049,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C28"/>
       <c r="D28" s="2"/>
       <c r="E28" s="18" t="s">
@@ -2830,7 +3065,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>_xlfn.CONCAT("'",C29,"': ",G29)</f>
         <v xml:space="preserve">'VALOR_FATURADO': 'Valor dos Serviços', </v>
@@ -2860,7 +3095,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C30"/>
       <c r="D30" s="2"/>
       <c r="E30" s="18" t="s">
@@ -2879,7 +3114,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" ref="A31:A35" si="0">_xlfn.CONCAT("'",C31,"': ",G31)</f>
         <v xml:space="preserve">'ATIT_COD_ATIVIDADE': 'Código do Serviço Prestado na Nota Fiscal', </v>
@@ -2909,7 +3144,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">'VALOR_ALIQUOTA': 'Alíquota', </v>
@@ -2939,7 +3174,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>'VALOR_IMPOSTO': ISS devido',</v>
@@ -2969,7 +3204,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C34"/>
       <c r="E34" s="18" t="s">
         <v>257</v>
@@ -2987,7 +3222,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">'TOMA_STA_ESTABELECIDO': ISS Retido', </v>
@@ -3017,7 +3252,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C36"/>
       <c r="E36" s="14" t="s">
         <v>257</v>
@@ -3035,7 +3270,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C37"/>
       <c r="E37" s="14" t="s">
         <v>257</v>
@@ -3053,7 +3288,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C38"/>
       <c r="E38" s="18" t="s">
         <v>257</v>
@@ -3068,7 +3303,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C39"/>
       <c r="E39" s="18" t="s">
         <v>257</v>
@@ -3083,7 +3318,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C40"/>
       <c r="E40" s="18" t="s">
         <v>257</v>
@@ -3098,7 +3333,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C41"/>
       <c r="E41" s="18" t="s">
         <v>257</v>
@@ -3113,7 +3348,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C42"/>
       <c r="E42" s="18" t="s">
         <v>257</v>
@@ -3128,7 +3363,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C43"/>
       <c r="E43" s="18" t="s">
         <v>257</v>
@@ -3143,7 +3378,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C44"/>
       <c r="E44" s="18" t="s">
         <v>257</v>
@@ -3158,7 +3393,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C45"/>
       <c r="E45" s="18" t="s">
         <v>257</v>
@@ -3173,7 +3408,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C46"/>
       <c r="E46" s="14" t="s">
         <v>257</v>
@@ -3188,7 +3423,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C47"/>
       <c r="E47" s="14" t="s">
         <v>257</v>
@@ -3203,7 +3438,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C48"/>
       <c r="E48" s="18" t="s">
         <v>257</v>
@@ -3218,7 +3453,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49"/>
       <c r="E49" s="18" t="s">
         <v>257</v>
@@ -3233,7 +3468,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50"/>
       <c r="E50" s="18" t="s">
         <v>257</v>
@@ -3248,7 +3483,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51"/>
       <c r="E51" s="18" t="s">
         <v>257</v>
@@ -3263,7 +3498,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52"/>
       <c r="E52" s="18" t="s">
         <v>257</v>
@@ -3281,7 +3516,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53"/>
       <c r="E53" s="14" t="s">
         <v>257</v>
@@ -3299,7 +3534,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54"/>
       <c r="E54" s="18" t="s">
         <v>257</v>
@@ -3314,7 +3549,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55"/>
       <c r="E55" s="18" t="s">
         <v>257</v>
@@ -3329,7 +3564,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56"/>
       <c r="E56" s="18" t="s">
         <v>257</v>
@@ -3344,7 +3579,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57"/>
       <c r="E57" s="18" t="s">
         <v>257</v>
@@ -3359,7 +3594,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58"/>
       <c r="E58" s="18" t="s">
         <v>257</v>
@@ -3377,7 +3612,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59"/>
       <c r="E59" s="18" t="s">
         <v>257</v>
@@ -3395,7 +3630,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60"/>
       <c r="E60" s="18" t="s">
         <v>257</v>
@@ -3413,7 +3648,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61"/>
       <c r="E61" s="18" t="s">
         <v>257</v>
@@ -3431,7 +3666,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62"/>
       <c r="E62" s="18" t="s">
         <v>257</v>
@@ -3449,7 +3684,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63"/>
       <c r="E63" s="18" t="s">
         <v>257</v>
@@ -3467,7 +3702,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64"/>
       <c r="D64" s="2"/>
       <c r="E64" s="18" t="s">
@@ -3483,7 +3718,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="5:11">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E65" s="18" t="s">
         <v>257</v>
       </c>
@@ -3497,7 +3732,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="5:11">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E66" s="18" t="s">
         <v>257</v>
       </c>
@@ -3514,7 +3749,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="5:11">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E67" s="18" t="s">
         <v>257</v>
       </c>
@@ -3531,7 +3766,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="5:11">
+    <row r="68" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E68" s="18" t="s">
         <v>257</v>
       </c>
@@ -3548,7 +3783,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="5:11">
+    <row r="69" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E69" s="18" t="s">
         <v>257</v>
       </c>
@@ -3562,7 +3797,7 @@
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="5:11">
+    <row r="70" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E70" s="18" t="s">
         <v>257</v>
       </c>
@@ -3579,7 +3814,7 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="5:11">
+    <row r="71" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E71" s="18" t="s">
         <v>257</v>
       </c>
@@ -3596,7 +3831,7 @@
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="5:11">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E72" s="18" t="s">
         <v>257</v>
       </c>
@@ -3610,7 +3845,7 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="5:11">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E73" s="18" t="s">
         <v>257</v>
       </c>
@@ -3624,7 +3859,7 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="5:11">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E74" s="18" t="s">
         <v>257</v>
       </c>
@@ -3638,7 +3873,7 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="5:11">
+    <row r="75" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E75" s="18" t="s">
         <v>257</v>
       </c>
@@ -3672,14 +3907,14 @@
       <selection activeCell="I1" sqref="I1:AW1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="46.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:49">
+    <row r="1" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3818,7 +4053,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="2:49">
+    <row r="2" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -3830,7 +4065,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="2:49">
+    <row r="3" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -3842,7 +4077,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="2:49">
+    <row r="4" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3854,7 +4089,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="2:49">
+    <row r="5" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
@@ -3866,7 +4101,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="2:49">
+    <row r="6" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -3878,7 +4113,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="2:49">
+    <row r="7" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -3890,7 +4125,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="2:49">
+    <row r="8" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
@@ -3902,7 +4137,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="2:49">
+    <row r="9" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -3914,7 +4149,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="2:49">
+    <row r="10" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -3926,7 +4161,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="2:49">
+    <row r="11" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
@@ -3938,7 +4173,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="2:49">
+    <row r="12" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -3950,7 +4185,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="2:49">
+    <row r="13" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
@@ -3962,7 +4197,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="2:49">
+    <row r="14" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -3974,7 +4209,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="2:49">
+    <row r="15" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -3986,7 +4221,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="2:49">
+    <row r="16" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -3998,7 +4233,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
@@ -4010,7 +4245,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
@@ -4022,7 +4257,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -4034,7 +4269,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -4046,7 +4281,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>20</v>
       </c>
@@ -4058,7 +4293,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -4070,7 +4305,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
@@ -4082,7 +4317,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
@@ -4094,7 +4329,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
@@ -4106,7 +4341,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
@@ -4118,7 +4353,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
@@ -4130,7 +4365,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>27</v>
       </c>
@@ -4142,7 +4377,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>28</v>
       </c>
@@ -4154,7 +4389,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>29</v>
       </c>
@@ -4166,7 +4401,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>30</v>
       </c>
@@ -4178,7 +4413,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>31</v>
       </c>
@@ -4190,7 +4425,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
@@ -4202,7 +4437,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>33</v>
       </c>
@@ -4214,7 +4449,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>34</v>
       </c>
@@ -4226,7 +4461,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>35</v>
       </c>
@@ -4238,7 +4473,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>36</v>
       </c>
@@ -4250,7 +4485,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>37</v>
       </c>
@@ -4262,7 +4497,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>38</v>
       </c>
@@ -4274,7 +4509,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>39</v>
       </c>
@@ -4286,7 +4521,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>40</v>
       </c>
@@ -4298,7 +4533,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>41</v>
       </c>
@@ -4307,7 +4542,7 @@
         <v xml:space="preserve">'Complemento do Endereço do Tomador', </v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>42</v>
       </c>
@@ -4316,7 +4551,7 @@
         <v xml:space="preserve">'Bairro do Tomador', </v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>43</v>
       </c>
@@ -4325,7 +4560,7 @@
         <v xml:space="preserve">'Cidade do Tomador', </v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>44</v>
       </c>
@@ -4334,7 +4569,7 @@
         <v xml:space="preserve">'UF do Tomador', </v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>45</v>
       </c>
@@ -4343,7 +4578,7 @@
         <v xml:space="preserve">'CEP do Tomador', </v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>46</v>
       </c>
@@ -4352,7 +4587,7 @@
         <v xml:space="preserve">'Email do Tomador', </v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>47</v>
       </c>
@@ -4361,7 +4596,7 @@
         <v xml:space="preserve">'Nº NFS-e Substituta', </v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>48</v>
       </c>
@@ -4370,7 +4605,7 @@
         <v xml:space="preserve">'ISS recolhido', </v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>49</v>
       </c>
@@ -4379,7 +4614,7 @@
         <v xml:space="preserve">'ISS a recolher', </v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>50</v>
       </c>
@@ -4388,7 +4623,7 @@
         <v xml:space="preserve">'Indicador de CPF/CNPJ do Intermediário', </v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>51</v>
       </c>
@@ -4397,7 +4632,7 @@
         <v xml:space="preserve">'CPF/CNPJ do Intermediário', </v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>52</v>
       </c>
@@ -4406,7 +4641,7 @@
         <v xml:space="preserve">'Inscrição Municipal do Intermediário', </v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>53</v>
       </c>
@@ -4415,7 +4650,7 @@
         <v xml:space="preserve">'Razão Social do Intermediário', </v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>54</v>
       </c>
@@ -4424,7 +4659,7 @@
         <v xml:space="preserve">'Repasse do Plano de Saúde', </v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>55</v>
       </c>
@@ -4433,7 +4668,7 @@
         <v xml:space="preserve">'PIS/PASEP', </v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>56</v>
       </c>
@@ -4442,7 +4677,7 @@
         <v xml:space="preserve">'COFINS', </v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>57</v>
       </c>
@@ -4451,7 +4686,7 @@
         <v xml:space="preserve">'INSS', </v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>58</v>
       </c>
@@ -4460,7 +4695,7 @@
         <v xml:space="preserve">'IR', </v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>59</v>
       </c>
@@ -4469,7 +4704,7 @@
         <v xml:space="preserve">'CSLL', </v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>60</v>
       </c>
@@ -4478,7 +4713,7 @@
         <v xml:space="preserve">'Carga tributária: Valor', </v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>61</v>
       </c>
@@ -4487,7 +4722,7 @@
         <v xml:space="preserve">'Carga tributária: Porcentagem', </v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>62</v>
       </c>
@@ -4496,7 +4731,7 @@
         <v xml:space="preserve">'Carga tributária: Fonte', </v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>63</v>
       </c>
@@ -4505,7 +4740,7 @@
         <v xml:space="preserve">'CEI', </v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>64</v>
       </c>
@@ -4514,7 +4749,7 @@
         <v xml:space="preserve">'Matrícula da Obra', </v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>65</v>
       </c>
@@ -4523,7 +4758,7 @@
         <v xml:space="preserve">'Município Prestação - cód. IBGE', </v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>66</v>
       </c>
@@ -4532,7 +4767,7 @@
         <v xml:space="preserve">'Situação do Aceite', </v>
       </c>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>67</v>
       </c>
@@ -4541,7 +4776,7 @@
         <v xml:space="preserve">'Encapsulamento', </v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>68</v>
       </c>
@@ -4550,7 +4785,7 @@
         <v xml:space="preserve">'Valor Total Recebido', </v>
       </c>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>69</v>
       </c>
@@ -4559,7 +4794,7 @@
         <v xml:space="preserve">'Tipo de Consolidação', </v>
       </c>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>70</v>
       </c>
@@ -4568,7 +4803,7 @@
         <v xml:space="preserve">'Nº NFS-e Consolidada', </v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>71</v>
       </c>
@@ -4577,7 +4812,7 @@
         <v xml:space="preserve">'Campo Reservado', </v>
       </c>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>72</v>
       </c>
@@ -4594,426 +4829,1035 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909487FF-670F-448A-8D95-32B64FDD8309}">
-  <dimension ref="C2:F28"/>
+  <dimension ref="A2:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6">
-      <c r="C2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" t="str">
+        <f>""""&amp;A3&amp;""": {""cnpj"": """&amp;B3&amp;""", ""cidade"": """&amp;C3&amp;"""},"</f>
+        <v>"A C P EQUIPAMENTOS INDUSTRIAIS...": {"cnpj": "00411438000162", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" t="str">
+        <f>""""&amp;A4&amp;""": {""cnpj"": """&amp;B4&amp;""", ""cidade"": """&amp;C4&amp;"""},"</f>
+        <v>"ACP EQUIP. IND. - 3": {"cnpj": "00411438000324", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" t="str">
+        <f>""""&amp;A5&amp;""": {""cnpj"": """&amp;B5&amp;""", ""cidade"": """&amp;C5&amp;"""},"</f>
+        <v>"AD VALOR ADMINISTRAÇÃO LTDA": {"cnpj": "06332839000103", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" t="str">
+        <f>""""&amp;A6&amp;""": {""cnpj"": """&amp;B6&amp;""", ""cidade"": """&amp;C6&amp;"""},"</f>
+        <v>"AGUAPLUS POCOS ARTESIANOS LTDA": {"cnpj": "17390750000110", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" t="str">
+        <f>""""&amp;A7&amp;""": {""cnpj"": """&amp;B7&amp;""", ""cidade"": """&amp;C7&amp;"""},"</f>
+        <v>"AGUAPLUS SANEAMENTO E PROCESSO...": {"cnpj": "07040764000150", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" t="str">
+        <f>""""&amp;A8&amp;""": {""cnpj"": """&amp;B8&amp;""", ""cidade"": """&amp;C8&amp;"""},"</f>
+        <v>"ANTONIA DE OLIVEIRA SOUSA SALG...": {"cnpj": "30466091000116", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" t="str">
+        <f>""""&amp;A9&amp;""": {""cnpj"": """&amp;B9&amp;""", ""cidade"": """&amp;C9&amp;"""},"</f>
+        <v>"APARECIDA ELIS.T. (DIALABOR)": {"cnpj": "07240217000118", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" t="str">
+        <f>""""&amp;A10&amp;""": {""cnpj"": """&amp;B10&amp;""", ""cidade"": """&amp;C10&amp;"""},"</f>
+        <v>"AUTOMETAL LTDA": {"cnpj": "59104513000195", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="str">
-        <f>""""&amp;C2&amp;""": {""cnpj"": """&amp;D2&amp;""", ""cidade"": """&amp;E2&amp;"""},"</f>
-        <v>"Cliente 1": {"cnpj": "21970251000179", "cidade": "São Bernardo do Campo"},</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6">
-      <c r="C3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D11" t="str">
+        <f>""""&amp;A11&amp;""": {""cnpj"": """&amp;B11&amp;""", ""cidade"": """&amp;C11&amp;"""},"</f>
+        <v>"BLG COMERCIAL": {"cnpj": "21970251000179", "cidade": "São Bernardo do Campo"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" t="s">
         <v>268</v>
       </c>
-      <c r="E3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F28" si="0">""""&amp;C3&amp;""": {""cnpj"": """&amp;D3&amp;""", ""cidade"": """&amp;E3&amp;"""},"</f>
-        <v>"ACP EQUIP. IND. - 3": {"cnpj": "00411438000324", "cidade": "Diadema"},</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6">
-      <c r="C4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>"ACP EQUIP. IND. ": {"cnpj": "00411438000162", "cidade": "Diadema"},</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6">
-      <c r="C5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D12" t="str">
+        <f>""""&amp;A12&amp;""": {""cnpj"": """&amp;B12&amp;""", ""cidade"": """&amp;C12&amp;"""},"</f>
+        <v>"BRUNO": {"cnpj": "32054536000186", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" t="str">
+        <f>""""&amp;A13&amp;""": {""cnpj"": """&amp;B13&amp;""", ""cidade"": """&amp;C13&amp;"""},"</f>
+        <v>"CAIO M.M. AZEREDO SOCIEDADE IN...": {"cnpj": "26312957000167", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B14" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14" t="str">
+        <f>""""&amp;A14&amp;""": {""cnpj"": """&amp;B14&amp;""", ""cidade"": """&amp;C14&amp;"""},"</f>
+        <v>"CAIXA ESCOLAR DA ESCOLA MUNICI...": {"cnpj": "10917506000113", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" t="str">
+        <f>""""&amp;A15&amp;""": {""cnpj"": """&amp;B15&amp;""", ""cidade"": """&amp;C15&amp;"""},"</f>
+        <v>"CAIXA ESCOLAR DA ESCOLA MUNICI...": {"cnpj": "10918387000113", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" t="str">
+        <f>""""&amp;A16&amp;""": {""cnpj"": """&amp;B16&amp;""", ""cidade"": """&amp;C16&amp;"""},"</f>
+        <v>"CAIXA ESCOLAR DA ESCOLA MUNICI...": {"cnpj": "10935808000114", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" t="s">
+        <v>338</v>
+      </c>
+      <c r="C17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" t="str">
+        <f>""""&amp;A17&amp;""": {""cnpj"": """&amp;B17&amp;""", ""cidade"": """&amp;C17&amp;"""},"</f>
+        <v>"CAIXA ESCOLAR DA ESCOLA MUNICI...": {"cnpj": "10857251000140", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" t="str">
+        <f>""""&amp;A18&amp;""": {""cnpj"": """&amp;B18&amp;""", ""cidade"": """&amp;C18&amp;"""},"</f>
+        <v>"CITINI": {"cnpj": "51005647000147", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C19" t="s">
         <v>75</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>"BLG COMERCIAL": {"cnpj": "21970251000179", "cidade": "São Bernardo do Campo"},</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D6" t="s">
-        <v>274</v>
-      </c>
-      <c r="E6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>"BRUNO": {"cnpj": "32054536000186", "cidade": "Diadema"},</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="C7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>"CITINI": {"cnpj": "51005647000147", "cidade": "Diadema"},</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="C8" t="s">
+      <c r="D19" t="str">
+        <f>""""&amp;A19&amp;""": {""cnpj"": """&amp;B19&amp;""", ""cidade"": """&amp;C19&amp;"""},"</f>
+        <v>"CLINICA ARRUDA": {"cnpj": "22357234000123", "cidade": "São Bernardo do Campo"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20" t="s">
+        <v>321</v>
+      </c>
+      <c r="C20" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" t="str">
+        <f>""""&amp;A20&amp;""": {""cnpj"": """&amp;B20&amp;""", ""cidade"": """&amp;C20&amp;"""},"</f>
+        <v>"CYPRIANO VIEIRA DESIDERATO": {"cnpj": "62508239000124", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" t="str">
+        <f>""""&amp;A21&amp;""": {""cnpj"": """&amp;B21&amp;""", ""cidade"": """&amp;C21&amp;"""},"</f>
+        <v>"D GONÇALVES (EUGÊNIO)": {"cnpj": "15763269000105", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>277</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B22" t="s">
         <v>278</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C22" t="s">
         <v>75</v>
       </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>"CLINICA ARRUDA": {"cnpj": "22357234000123", "cidade": "São Bernardo do Campo"},</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6">
-      <c r="C9" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" t="s">
-        <v>280</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D22" t="str">
+        <f>""""&amp;A22&amp;""": {""cnpj"": """&amp;B22&amp;""", ""cidade"": """&amp;C22&amp;"""},"</f>
+        <v>"DENER": {"cnpj": "46174229000143", "cidade": "São Bernardo do Campo"},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>367</v>
+      </c>
+      <c r="B23" t="s">
+        <v>352</v>
+      </c>
+      <c r="C23" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" t="str">
+        <f>""""&amp;A23&amp;""": {""cnpj"": """&amp;B23&amp;""", ""cidade"": """&amp;C23&amp;"""},"</f>
+        <v>"DEPLASTI INDUSTRIA E COMERCIO ...": {"cnpj": "33489461000129", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>368</v>
+      </c>
+      <c r="B24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C24" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24" t="str">
+        <f>""""&amp;A24&amp;""": {""cnpj"": """&amp;B24&amp;""", ""cidade"": """&amp;C24&amp;"""},"</f>
+        <v>"DESIDERAT0 SORVETES FINOS LTDA": {"cnpj": "09264757000167", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" t="str">
+        <f>""""&amp;A25&amp;""": {""cnpj"": """&amp;B25&amp;""", ""cidade"": """&amp;C25&amp;"""},"</f>
+        <v>"DOTBUILD SISTEMAS": {"cnpj": "19686612000108", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>369</v>
+      </c>
+      <c r="B26" t="s">
+        <v>331</v>
+      </c>
+      <c r="C26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D26" t="str">
+        <f>""""&amp;A26&amp;""": {""cnpj"": """&amp;B26&amp;""", ""cidade"": """&amp;C26&amp;"""},"</f>
+        <v>"ELIAS LIBERATO ARTEFATOS": {"cnpj": "12543402000111", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" t="s">
         <v>75</v>
       </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>"DENER": {"cnpj": "46174229000143", "cidade": "São Bernardo do Campo"},</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="C10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D10" t="s">
-        <v>282</v>
-      </c>
-      <c r="E10" t="s">
-        <v>269</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>"APARECIDA ELIS.T. (DIALABOR)": {"cnpj": "07240217000118", "cidade": "Diadema"},</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E11" t="s">
-        <v>269</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>"DOTBUILD SISTEMAS": {"cnpj": "19686612000108", "cidade": "Diadema"},</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="C12" t="s">
-        <v>285</v>
-      </c>
-      <c r="D12" t="s">
-        <v>286</v>
-      </c>
-      <c r="E12" t="s">
-        <v>269</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>"D GONÇALVES (EUGÊNIO)": {"cnpj": "15763269000105", "cidade": "Diadema"},</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6">
-      <c r="C13" t="s">
+      <c r="D27" t="str">
+        <f>""""&amp;A27&amp;""": {""cnpj"": """&amp;B27&amp;""", ""cidade"": """&amp;C27&amp;"""},"</f>
+        <v>"EXPANSÃO BRASIL (SABOR)": {"cnpj": "02811960000167", "cidade": "São Bernardo do Campo"},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>370</v>
+      </c>
+      <c r="B28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C28" t="s">
+        <v>268</v>
+      </c>
+      <c r="D28" t="str">
+        <f>""""&amp;A28&amp;""": {""cnpj"": """&amp;B28&amp;""", ""cidade"": """&amp;C28&amp;"""},"</f>
+        <v>"FENIX ASSESSORIA CONTABIL S/S ...": {"cnpj": "01711130000103", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>371</v>
+      </c>
+      <c r="B29" t="s">
         <v>287</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C29" t="s">
         <v>288</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D29" t="str">
+        <f>""""&amp;A29&amp;""": {""cnpj"": """&amp;B29&amp;""", ""cidade"": """&amp;C29&amp;"""},"</f>
+        <v>"FL LOPES BARUERI (LOPES)": {"cnpj": "25424274000139", "cidade": "Barueri"},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" t="s">
+        <v>290</v>
+      </c>
+      <c r="C30" t="s">
         <v>75</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>"EXPANSÃO BRASIL (SABOR)": {"cnpj": "02811960000167", "cidade": "São Bernardo do Campo"},</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6">
-      <c r="C14" t="s">
-        <v>289</v>
-      </c>
-      <c r="D14" t="s">
-        <v>290</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D30" t="str">
+        <f>""""&amp;A30&amp;""": {""cnpj"": """&amp;B30&amp;""", ""cidade"": """&amp;C30&amp;"""},"</f>
+        <v>"G4 BRASIL": {"cnpj": "12631390000187", "cidade": "São Bernardo do Campo"},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>372</v>
+      </c>
+      <c r="B31" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31" t="str">
+        <f>""""&amp;A31&amp;""": {""cnpj"": """&amp;B31&amp;""", ""cidade"": """&amp;C31&amp;"""},"</f>
+        <v>"GARAGEM 120 MECANICA PUBLICID...": {"cnpj": "04676910000140", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>291</v>
       </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>"FL Lopes Barueri (LOPES)": {"cnpj": "25424274000139", "cidade": "Barueri"},</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" t="s">
+      <c r="B32" t="s">
         <v>292</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C32" t="s">
         <v>293</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D32" t="str">
+        <f>""""&amp;A32&amp;""": {""cnpj"": """&amp;B32&amp;""", ""cidade"": """&amp;C32&amp;"""},"</f>
+        <v>"GIOVANNA VALENTIM": {"cnpj": "51084043000133", "cidade": "Indaiatuba"},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B33" t="s">
+        <v>295</v>
+      </c>
+      <c r="C33" t="s">
         <v>75</v>
       </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>"G4 BRASIL": {"cnpj": "12631390000187", "cidade": "São Bernardo do Campo"},</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
-      <c r="C16" t="s">
-        <v>294</v>
-      </c>
-      <c r="D16" t="s">
-        <v>295</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D33" t="str">
+        <f>""""&amp;A33&amp;""": {""cnpj"": """&amp;B33&amp;""", ""cidade"": """&amp;C33&amp;"""},"</f>
+        <v>"GLK": {"cnpj": "03840192000132", "cidade": "São Bernardo do Campo"},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>373</v>
+      </c>
+      <c r="B34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C34" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" t="str">
+        <f>""""&amp;A34&amp;""": {""cnpj"": """&amp;B34&amp;""", ""cidade"": """&amp;C34&amp;"""},"</f>
+        <v>"GRAFIVE CERT CONSULTORIA LTDA": {"cnpj": "47335508000104", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>374</v>
+      </c>
+      <c r="B35" t="s">
+        <v>356</v>
+      </c>
+      <c r="C35" t="s">
+        <v>268</v>
+      </c>
+      <c r="D35" t="str">
+        <f>""""&amp;A35&amp;""": {""cnpj"": """&amp;B35&amp;""", ""cidade"": """&amp;C35&amp;"""},"</f>
+        <v>"HMF SISTEMAS DE ENERGIA COMERC...": {"cnpj": "29617403000166", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>296</v>
       </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>"GIOVANNA VALENTIM": {"cnpj": "51084043000133", "cidade": "Indaiatuba"},</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" t="s">
+      <c r="B36" t="s">
         <v>297</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C36" t="s">
+        <v>268</v>
+      </c>
+      <c r="D36" t="str">
+        <f>""""&amp;A36&amp;""": {""cnpj"": """&amp;B36&amp;""", ""cidade"": """&amp;C36&amp;"""},"</f>
+        <v>"HSR": {"cnpj": "31435116000187", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>375</v>
+      </c>
+      <c r="B37" t="s">
+        <v>330</v>
+      </c>
+      <c r="C37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D37" t="str">
+        <f>""""&amp;A37&amp;""": {""cnpj"": """&amp;B37&amp;""", ""cidade"": """&amp;C37&amp;"""},"</f>
+        <v>"JOSE MARIO GALLI DESIDERATO": {"cnpj": "09519432000188", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B38" t="s">
+        <v>332</v>
+      </c>
+      <c r="C38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D38" t="str">
+        <f>""""&amp;A38&amp;""": {""cnpj"": """&amp;B38&amp;""", ""cidade"": """&amp;C38&amp;"""},"</f>
+        <v>"KHROMO TECHNOLOGY DO BRASIL SO...": {"cnpj": "10610292000138", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>377</v>
+      </c>
+      <c r="B39" t="s">
+        <v>341</v>
+      </c>
+      <c r="C39" t="s">
+        <v>268</v>
+      </c>
+      <c r="D39" t="str">
+        <f>""""&amp;A39&amp;""": {""cnpj"": """&amp;B39&amp;""", ""cidade"": """&amp;C39&amp;"""},"</f>
+        <v>"LMG ADMINISTRACAO DE BENS IMOV...": {"cnpj": "25097975000100", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B40" t="s">
+        <v>320</v>
+      </c>
+      <c r="C40" t="s">
+        <v>268</v>
+      </c>
+      <c r="D40" t="str">
+        <f>""""&amp;A40&amp;""": {""cnpj"": """&amp;B40&amp;""", ""cidade"": """&amp;C40&amp;"""},"</f>
+        <v>"M T WATAYA NAKAO ME": {"cnpj": "58866732000149", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>298</v>
       </c>
-      <c r="E17" t="s">
+      <c r="B41" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" t="s">
+        <v>268</v>
+      </c>
+      <c r="D41" t="str">
+        <f>""""&amp;A41&amp;""": {""cnpj"": """&amp;B41&amp;""", ""cidade"": """&amp;C41&amp;"""},"</f>
+        <v>"MARCO AURELIO (MA) ": {"cnpj": "05877306000144", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>379</v>
+      </c>
+      <c r="B42" t="s">
+        <v>333</v>
+      </c>
+      <c r="C42" t="s">
+        <v>268</v>
+      </c>
+      <c r="D42" t="str">
+        <f>""""&amp;A42&amp;""": {""cnpj"": """&amp;B42&amp;""", ""cidade"": """&amp;C42&amp;"""},"</f>
+        <v>"MAXXIKIT AUTO PARTS INDUSTRIA ...": {"cnpj": "16888626000116", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>380</v>
+      </c>
+      <c r="B43" t="s">
+        <v>300</v>
+      </c>
+      <c r="C43" t="s">
+        <v>268</v>
+      </c>
+      <c r="D43" t="str">
+        <f>""""&amp;A43&amp;""": {""cnpj"": """&amp;B43&amp;""", ""cidade"": """&amp;C43&amp;"""},"</f>
+        <v>"MED PET SHOP LTDA ME": {"cnpj": "08937227000170", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>381</v>
+      </c>
+      <c r="B44" t="s">
+        <v>340</v>
+      </c>
+      <c r="C44" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44" t="str">
+        <f>""""&amp;A44&amp;""": {""cnpj"": """&amp;B44&amp;""", ""cidade"": """&amp;C44&amp;"""},"</f>
+        <v>"MENDES &amp; AZEREDO CONSULTORIA P...": {"cnpj": "22085439000105", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>382</v>
+      </c>
+      <c r="B45" t="s">
+        <v>301</v>
+      </c>
+      <c r="C45" t="s">
+        <v>268</v>
+      </c>
+      <c r="D45" t="str">
+        <f>""""&amp;A45&amp;""": {""cnpj"": """&amp;B45&amp;""", ""cidade"": """&amp;C45&amp;"""},"</f>
+        <v>"MERCADINHO E PADARIA WK LTDA": {"cnpj": "34830519000119", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>383</v>
+      </c>
+      <c r="B46" t="s">
+        <v>357</v>
+      </c>
+      <c r="C46" t="s">
+        <v>268</v>
+      </c>
+      <c r="D46" t="str">
+        <f>""""&amp;A46&amp;""": {""cnpj"": """&amp;B46&amp;""", ""cidade"": """&amp;C46&amp;"""},"</f>
+        <v>"MIGUEL SANTOS PARTICIPACOES LT...": {"cnpj": "53902774000174", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>384</v>
+      </c>
+      <c r="B47" t="s">
+        <v>323</v>
+      </c>
+      <c r="C47" t="s">
+        <v>268</v>
+      </c>
+      <c r="D47" t="str">
+        <f>""""&amp;A47&amp;""": {""cnpj"": """&amp;B47&amp;""", ""cidade"": """&amp;C47&amp;"""},"</f>
+        <v>"MOISÉS GONÇALVES DA SILVA LAVA...": {"cnpj": "12535091000149", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>385</v>
+      </c>
+      <c r="B48" t="s">
+        <v>348</v>
+      </c>
+      <c r="C48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48" t="str">
+        <f>""""&amp;A48&amp;""": {""cnpj"": """&amp;B48&amp;""", ""cidade"": """&amp;C48&amp;"""},"</f>
+        <v>"NEW TECH SISTEMAS DE ENERGIA L...": {"cnpj": "40649288000144", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>302</v>
+      </c>
+      <c r="B49" t="s">
+        <v>303</v>
+      </c>
+      <c r="C49" t="s">
+        <v>268</v>
+      </c>
+      <c r="D49" t="str">
+        <f>""""&amp;A49&amp;""": {""cnpj"": """&amp;B49&amp;""", ""cidade"": """&amp;C49&amp;"""},"</f>
+        <v>"OSWAR": {"cnpj": "74421298000140", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>386</v>
+      </c>
+      <c r="B50" t="s">
+        <v>353</v>
+      </c>
+      <c r="C50" t="s">
+        <v>268</v>
+      </c>
+      <c r="D50" t="str">
+        <f>""""&amp;A50&amp;""": {""cnpj"": """&amp;B50&amp;""", ""cidade"": """&amp;C50&amp;"""},"</f>
+        <v>"PTM PLANEJAMENTO FINANCEIRO LT...": {"cnpj": "46728652000148", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>387</v>
+      </c>
+      <c r="B51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C51" t="s">
+        <v>268</v>
+      </c>
+      <c r="D51" t="str">
+        <f>""""&amp;A51&amp;""": {""cnpj"": """&amp;B51&amp;""", ""cidade"": """&amp;C51&amp;"""},"</f>
+        <v>"R&amp;Y SISTEMAS MANUTENCOES ELETR...": {"cnpj": "08930856000178", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>304</v>
+      </c>
+      <c r="B52" t="s">
+        <v>305</v>
+      </c>
+      <c r="C52" t="s">
+        <v>306</v>
+      </c>
+      <c r="D52" t="str">
+        <f>""""&amp;A52&amp;""": {""cnpj"": """&amp;B52&amp;""", ""cidade"": """&amp;C52&amp;"""},"</f>
+        <v>"RESTAURANTE MINEIRISSIMO ": {"cnpj": "19964861000118", "cidade": "Guarulhos"},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>388</v>
+      </c>
+      <c r="B53" t="s">
+        <v>344</v>
+      </c>
+      <c r="C53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D53" t="str">
+        <f>""""&amp;A53&amp;""": {""cnpj"": """&amp;B53&amp;""", ""cidade"": """&amp;C53&amp;"""},"</f>
+        <v>"ROTH, OCHIAI E ANANIAS SOCIEDA...": {"cnpj": "28039144000170", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>307</v>
+      </c>
+      <c r="B54" t="s">
+        <v>308</v>
+      </c>
+      <c r="C54" t="s">
+        <v>309</v>
+      </c>
+      <c r="D54" t="str">
+        <f>""""&amp;A54&amp;""": {""cnpj"": """&amp;B54&amp;""", ""cidade"": """&amp;C54&amp;"""},"</f>
+        <v>"SAFETY FILIAL": {"cnpj": "24613608000230", "cidade": "Cajamar"},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>310</v>
+      </c>
+      <c r="B55" t="s">
+        <v>311</v>
+      </c>
+      <c r="C55" t="s">
         <v>75</v>
       </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>"GLK": {"cnpj": "03840192000132", "cidade": "São Bernardo do Campo"},</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="C18" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18" t="s">
-        <v>300</v>
-      </c>
-      <c r="E18" t="s">
-        <v>269</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>"HSR": {"cnpj": "31435116000187", "cidade": "Diadema"},</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" t="s">
-        <v>301</v>
-      </c>
-      <c r="D19" t="s">
-        <v>302</v>
-      </c>
-      <c r="E19" t="s">
-        <v>269</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>"MARCO AURELIO (MA) ": {"cnpj": "05877306000144", "cidade": "Diadema"},</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="C20" t="s">
-        <v>303</v>
-      </c>
-      <c r="D20" t="s">
-        <v>304</v>
-      </c>
-      <c r="E20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>"MEDPET": {"cnpj": "08937227000170", "cidade": "Diadema"},</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="C21" t="s">
-        <v>305</v>
-      </c>
-      <c r="D21" t="s">
-        <v>306</v>
-      </c>
-      <c r="E21" t="s">
-        <v>269</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>"MERCADINHO WK": {"cnpj": "34830519000119", "cidade": "Diadema"},</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6">
-      <c r="C22" t="s">
-        <v>307</v>
-      </c>
-      <c r="D22" t="s">
-        <v>308</v>
-      </c>
-      <c r="E22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>"OSWAR": {"cnpj": "74421298000140", "cidade": "Diadema"},</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="C23" t="s">
-        <v>309</v>
-      </c>
-      <c r="D23" t="s">
-        <v>310</v>
-      </c>
-      <c r="E23" t="s">
-        <v>311</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>"RESTAURANTE MINEIRISSIMO ": {"cnpj": "19964861000118", "cidade": "Guarulhos"},</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="C24" t="s">
+      <c r="D55" t="str">
+        <f>""""&amp;A55&amp;""": {""cnpj"": """&amp;B55&amp;""", ""cidade"": """&amp;C55&amp;"""},"</f>
+        <v>"SAFETY MATRIZ": {"cnpj": "24613608000150", "cidade": "São Bernardo do Campo"},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>389</v>
+      </c>
+      <c r="B56" t="s">
+        <v>324</v>
+      </c>
+      <c r="C56" t="s">
+        <v>268</v>
+      </c>
+      <c r="D56" t="str">
+        <f>""""&amp;A56&amp;""": {""cnpj"": """&amp;B56&amp;""", ""cidade"": """&amp;C56&amp;"""},"</f>
+        <v>"SAMISA S C LTDA": {"cnpj": "50141886000161", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>390</v>
+      </c>
+      <c r="B57" t="s">
+        <v>319</v>
+      </c>
+      <c r="C57" t="s">
+        <v>268</v>
+      </c>
+      <c r="D57" t="str">
+        <f>""""&amp;A57&amp;""": {""cnpj"": """&amp;B57&amp;""", ""cidade"": """&amp;C57&amp;"""},"</f>
+        <v>"SÃO LUCAS ESCRITORIO DE GESTÃO...": {"cnpj": "59117879000107", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>391</v>
+      </c>
+      <c r="B58" t="s">
+        <v>355</v>
+      </c>
+      <c r="C58" t="s">
+        <v>268</v>
+      </c>
+      <c r="D58" t="str">
+        <f>""""&amp;A58&amp;""": {""cnpj"": """&amp;B58&amp;""", ""cidade"": """&amp;C58&amp;"""},"</f>
+        <v>"SATLER FASHION COMPANY LTDA": {"cnpj": "47587824000173", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>312</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B59" t="s">
         <v>313</v>
       </c>
-      <c r="E24" t="s">
+      <c r="C59" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" t="str">
+        <f>""""&amp;A59&amp;""": {""cnpj"": """&amp;B59&amp;""", ""cidade"": """&amp;C59&amp;"""},"</f>
+        <v>"SONHO DA SORTE": {"cnpj": "39350874000104", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>392</v>
+      </c>
+      <c r="B60" t="s">
+        <v>347</v>
+      </c>
+      <c r="C60" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" t="str">
+        <f>""""&amp;A60&amp;""": {""cnpj"": """&amp;B60&amp;""", ""cidade"": """&amp;C60&amp;"""},"</f>
+        <v>"TOTB PARTICIPACOES LTDA": {"cnpj": "33715500000169", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>393</v>
+      </c>
+      <c r="B61" t="s">
+        <v>317</v>
+      </c>
+      <c r="C61" t="s">
+        <v>268</v>
+      </c>
+      <c r="D61" t="str">
+        <f>""""&amp;A61&amp;""": {""cnpj"": """&amp;B61&amp;""", ""cidade"": """&amp;C61&amp;"""},"</f>
+        <v>"TUBOLAR MATERIAIS PARA CONSTRU...": {"cnpj": "45471869000152", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>314</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>"SAFETY FILIAL": {"cnpj": "24613608000230", "cidade": "Cajamar"},</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6">
-      <c r="C25" t="s">
+      <c r="B62" t="s">
         <v>315</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C62" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" t="str">
+        <f>""""&amp;A62&amp;""": {""cnpj"": """&amp;B62&amp;""", ""cidade"": """&amp;C62&amp;"""},"</f>
+        <v>"TUTTI BELLI": {"cnpj": "01190921000127", "cidade": "São Bernardo do Campo"},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>394</v>
+      </c>
+      <c r="B63" t="s">
+        <v>343</v>
+      </c>
+      <c r="C63" t="s">
+        <v>268</v>
+      </c>
+      <c r="D63" t="str">
+        <f>""""&amp;A63&amp;""": {""cnpj"": """&amp;B63&amp;""", ""cidade"": """&amp;C63&amp;"""},"</f>
+        <v>"TWR TECNOLOGIA E COMERCIO DE M...": {"cnpj": "08455522000190", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>395</v>
+      </c>
+      <c r="B64" t="s">
+        <v>350</v>
+      </c>
+      <c r="C64" t="s">
+        <v>268</v>
+      </c>
+      <c r="D64" t="str">
+        <f>""""&amp;A64&amp;""": {""cnpj"": """&amp;B64&amp;""", ""cidade"": """&amp;C64&amp;"""},"</f>
+        <v>"VCG 01 EMPREENDIMENTO IMOBILIA...": {"cnpj": "43084512000196", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>396</v>
+      </c>
+      <c r="B65" t="s">
         <v>316</v>
       </c>
-      <c r="E25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>"SAFETY MATRIZ": {"cnpj": "24613608000150", "cidade": "São Bernardo do Campo"},</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6">
-      <c r="C26" t="s">
-        <v>317</v>
-      </c>
-      <c r="D26" t="s">
-        <v>318</v>
-      </c>
-      <c r="E26" t="s">
-        <v>269</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>"SONHO DA SORTE": {"cnpj": "39350874000104", "cidade": "Diadema"},</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6">
-      <c r="C27" t="s">
-        <v>319</v>
-      </c>
-      <c r="D27" t="s">
-        <v>320</v>
-      </c>
-      <c r="E27" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>"TUTTI BELLI": {"cnpj": "01190921000127", "cidade": "São Bernardo do Campo"},</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6">
-      <c r="C28" t="s">
-        <v>321</v>
-      </c>
-      <c r="D28" t="s">
-        <v>322</v>
-      </c>
-      <c r="E28" t="s">
-        <v>269</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>"VERARDI MESQUITA ": {"cnpj": "30416776000158", "cidade": "Diadema"},</v>
+      <c r="C65" t="s">
+        <v>268</v>
+      </c>
+      <c r="D65" t="str">
+        <f>""""&amp;A65&amp;""": {""cnpj"": """&amp;B65&amp;""", ""cidade"": """&amp;C65&amp;"""},"</f>
+        <v>"VERARDI &amp; MESQUITA SOCIEDADE D...": {"cnpj": "30416776000158", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>397</v>
+      </c>
+      <c r="B66" t="s">
+        <v>351</v>
+      </c>
+      <c r="C66" t="s">
+        <v>268</v>
+      </c>
+      <c r="D66" t="str">
+        <f>""""&amp;A66&amp;""": {""cnpj"": """&amp;B66&amp;""", ""cidade"": """&amp;C66&amp;"""},"</f>
+        <v>"VETERINARIA NOSSO LAR LTDA": {"cnpj": "44569964000120", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>398</v>
+      </c>
+      <c r="B67" t="s">
+        <v>339</v>
+      </c>
+      <c r="C67" t="s">
+        <v>268</v>
+      </c>
+      <c r="D67" t="str">
+        <f>""""&amp;A67&amp;""": {""cnpj"": """&amp;B67&amp;""", ""cidade"": """&amp;C67&amp;"""},"</f>
+        <v>"VG ADMINISTRACAO DE IMOVEIS E ...": {"cnpj": "22733153000180", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>399</v>
+      </c>
+      <c r="B68" t="s">
+        <v>349</v>
+      </c>
+      <c r="C68" t="s">
+        <v>268</v>
+      </c>
+      <c r="D68" t="str">
+        <f>""""&amp;A68&amp;""": {""cnpj"": """&amp;B68&amp;""", ""cidade"": """&amp;C68&amp;"""},"</f>
+        <v>"VISION CONSTANTLY GROWING LTDA": {"cnpj": "41988005000151", "cidade": "Diadema"},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>400</v>
+      </c>
+      <c r="B69" t="s">
+        <v>342</v>
+      </c>
+      <c r="C69" t="s">
+        <v>268</v>
+      </c>
+      <c r="D69" t="str">
+        <f>""""&amp;A69&amp;""": {""cnpj"": """&amp;B69&amp;""", ""cidade"": """&amp;C69&amp;"""},"</f>
+        <v>"YABIKU MATERIAIS DE CONSTRUCAO...": {"cnpj": "57015984000444", "cidade": "Diadema"},</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:D69" xr:uid="{909487FF-670F-448A-8D95-32B64FDD8309}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D69">
+      <sortCondition ref="A2:A69"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>